--- a/data/trans_orig/OT3-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/OT3-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CABDCA2-6D98-4951-B4A7-11C63A54CF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A5F8687-FDA1-4F18-91D1-B8C74260EDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{490870F7-37B1-4E54-9BDA-0E835D623BC1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{776598E8-108A-451D-B00B-BF2BC28158C9}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -505,7 +505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FB6D6BD-7B47-4CA2-B564-75F290850B5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4022A6CC-C1A8-4B09-84E6-58CC092F2A18}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1020,7 +1020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C791FF84-135F-4069-961A-3BD64D144547}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465BB86B-04F4-47EB-BE09-3138F8A70BB1}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/OT3-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/OT3-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A5F8687-FDA1-4F18-91D1-B8C74260EDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0159E89-A30E-4232-9E7D-6C9E1F5867C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{776598E8-108A-451D-B00B-BF2BC28158C9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DBDD1C40-9FEC-442A-9FC4-13F864191103}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -93,7 +93,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población con diagnóstico de otra enfermedad 3 en 2015 (Tasa respuesta: 0,02%)</t>
+    <t>Población con diagnóstico de otra enfermedad 3 en 2016 (Tasa respuesta: 0,02%)</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4022A6CC-C1A8-4B09-84E6-58CC092F2A18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719AABB7-6B3D-4298-9D82-FE8774A44439}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1020,7 +1020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465BB86B-04F4-47EB-BE09-3138F8A70BB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4EB147-763B-48F2-88B1-A1D08D7BC7DD}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/OT3-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/OT3-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0159E89-A30E-4232-9E7D-6C9E1F5867C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4CD88BC-7F19-4643-B2B7-F5D8EEDD8878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DBDD1C40-9FEC-442A-9FC4-13F864191103}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8F674972-8EBE-49B7-9FD2-78E0BD234EEF}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -505,7 +505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719AABB7-6B3D-4298-9D82-FE8774A44439}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE94E37-1319-4893-BDB0-7D4866FABF72}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1020,7 +1020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4EB147-763B-48F2-88B1-A1D08D7BC7DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60668BA6-0694-4DD2-9A1B-EBEB93373246}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/OT3-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/OT3-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4CD88BC-7F19-4643-B2B7-F5D8EEDD8878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E6FBEEF-4B05-4104-AC2A-A0474B5BC386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8F674972-8EBE-49B7-9FD2-78E0BD234EEF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{914387D4-FF0D-44A6-A0D9-0CD3379C32F5}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -505,7 +505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE94E37-1319-4893-BDB0-7D4866FABF72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DABC2AE7-9A5B-408D-AC2C-A8A03A82D049}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1020,7 +1020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60668BA6-0694-4DD2-9A1B-EBEB93373246}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50354813-32D1-4EBC-B264-A3B0D334AD19}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
